--- a/ig/sd-exemple-030/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-exemple-030/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T16:58:17+00:00</t>
+    <t>2024-02-23T17:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
